--- a/src/test/resources/testdata/SkyTravelers_Logincred1.xlsx
+++ b/src/test/resources/testdata/SkyTravelers_Logincred1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007AC343-BBEF-4B5C-8CF5-B4CD490B35FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B2260-6371-4F31-B11F-F4AFE868317C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F7FAFB73-E0AE-4742-9CA3-6FDCF067A167}"/>
+    <workbookView xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{F7FAFB73-E0AE-4742-9CA3-6FDCF067A167}"/>
   </bookViews>
   <sheets>
     <sheet name="cred" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
